--- a/flora开发计划跟踪表.xlsx
+++ b/flora开发计划跟踪表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="某项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">某项目!$A$2:$P$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">某项目!$A$2:$P$104</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>某项目开发计划跟踪表</t>
   </si>
@@ -137,18 +137,18 @@
 index_search.jsp</t>
   </si>
   <si>
-    <t>餐厅预订
+    <t>餐厅预定
 index_schedule_restaurant_list.jsp</t>
   </si>
   <si>
     <t>2018.8.4</t>
   </si>
   <si>
-    <t>预订餐厅详情
+    <t>预定餐厅详情
 restaurant_detail_info.jsp</t>
   </si>
   <si>
-    <t>预订信息
+    <t>预定信息
 index_schedule_info.jsp</t>
   </si>
   <si>
@@ -181,11 +181,22 @@
     <t>2018.8.15</t>
   </si>
   <si>
-    <t>预订点单
+    <t>预定点单
 schedule_order_panel.jsp</t>
   </si>
   <si>
     <t>2018.8.5</t>
+  </si>
+  <si>
+    <t>预定点单页面
+sechdule_order.jsp</t>
+  </si>
+  <si>
+    <t>2018.8.17</t>
+  </si>
+  <si>
+    <t>预定分享定位
+index_schedule_order_share_edit.jsp</t>
   </si>
   <si>
     <t>预定结束点单并付款
@@ -200,7 +211,7 @@
 index_order_pay_detail.jsp</t>
   </si>
   <si>
-    <t>预订订单详情
+    <t>预定订单详情
 index_schedule_order_detail.jsp</t>
   </si>
   <si>
@@ -224,8 +235,12 @@
 dine_in_order_panel.jsp</t>
   </si>
   <si>
-    <t>食堂结束点单并付款
-dine_in_order_detail.jsp</t>
+    <t>食堂点单页面
+dine_in_order.jsp</t>
+  </si>
+  <si>
+    <t>生成订单
+dine_in_order_make.jsp</t>
   </si>
   <si>
     <t>食堂订单详情
@@ -287,7 +302,7 @@
 member_notice.jsp</t>
   </si>
   <si>
-    <t>我的预订订单
+    <t>我的预定订单
 index_order_item.jsp</t>
   </si>
   <si>
@@ -343,11 +358,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -408,7 +423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,25 +444,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +468,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -483,30 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -514,8 +535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,16 +550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +579,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,7 +675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,19 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,43 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,79 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +845,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,7 +899,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,41 +936,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -933,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,137 +960,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,19 +1140,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1174,6 +1194,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,14 +1589,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3:L53"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1648,7 +1669,7 @@
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -1657,13 +1678,13 @@
       <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1682,13 +1703,13 @@
       <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -1696,10 +1717,10 @@
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="13"/>
@@ -1710,16 +1731,16 @@
       <c r="F4" s="10"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="13"/>
@@ -1730,16 +1751,16 @@
       <c r="F5" s="10"/>
       <c r="G5" s="12"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" ht="24" spans="1:16">
       <c r="A6" s="13" t="s">
@@ -1754,13 +1775,13 @@
       <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -1768,8 +1789,8 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" ht="24" spans="1:16">
       <c r="A7" s="13"/>
@@ -1782,9 +1803,9 @@
       <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -1792,8 +1813,8 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" ht="24" spans="1:16">
       <c r="A8" s="13"/>
@@ -1806,9 +1827,9 @@
       <c r="F8" s="14"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -1816,8 +1837,8 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" ht="24" spans="1:16">
       <c r="A9" s="13"/>
@@ -1830,9 +1851,9 @@
       <c r="F9" s="14"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -1840,8 +1861,8 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" ht="24" spans="1:16">
       <c r="A10" s="13"/>
@@ -1854,9 +1875,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="10" t="s">
@@ -1864,8 +1885,8 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" ht="24" spans="1:16">
       <c r="A11" s="13"/>
@@ -1878,9 +1899,9 @@
       <c r="F11" s="14"/>
       <c r="G11" s="12"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28" t="s">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="10" t="s">
@@ -1888,8 +1909,8 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" ht="24" spans="1:16">
       <c r="A12" s="13"/>
@@ -1902,9 +1923,9 @@
       <c r="F12" s="14"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="10" t="s">
@@ -1912,8 +1933,8 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" ht="24" spans="1:16">
       <c r="A13" s="13"/>
@@ -1926,9 +1947,9 @@
       <c r="F13" s="14"/>
       <c r="G13" s="12"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="10" t="s">
@@ -1936,8 +1957,8 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" ht="24" spans="1:16">
       <c r="A14" s="13"/>
@@ -1950,9 +1971,9 @@
       <c r="F14" s="14"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -1960,8 +1981,8 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" ht="24" spans="1:16">
       <c r="A15" s="13"/>
@@ -1974,9 +1995,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -1984,8 +2005,8 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" ht="24" spans="1:16">
       <c r="A16" s="13"/>
@@ -1998,9 +2019,9 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="10" t="s">
@@ -2008,10 +2029,10 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-    </row>
-    <row r="17" ht="27" customHeight="1" spans="1:16">
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+    </row>
+    <row r="17" ht="24" spans="1:16">
       <c r="A17" s="13"/>
       <c r="B17" s="17" t="s">
         <v>42</v>
@@ -2022,23 +2043,21 @@
       <c r="F17" s="14"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="11"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" ht="24" spans="1:16">
       <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
+      <c r="B18" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
@@ -2046,21 +2065,23 @@
       <c r="F18" s="14"/>
       <c r="G18" s="12"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-    </row>
-    <row r="19" ht="24" spans="1:16">
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:16">
       <c r="A19" s="13"/>
-      <c r="B19" s="17" t="s">
-        <v>44</v>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
@@ -2068,21 +2089,23 @@
       <c r="F19" s="14"/>
       <c r="G19" s="12"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="L19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" ht="24" spans="1:16">
       <c r="A20" s="13"/>
-      <c r="B20" s="17" t="s">
-        <v>45</v>
+      <c r="B20" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
@@ -2090,23 +2113,23 @@
       <c r="F20" s="14"/>
       <c r="G20" s="12"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28" t="s">
-        <v>39</v>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" ht="24" spans="1:16">
       <c r="A21" s="13"/>
-      <c r="B21" s="17" t="s">
-        <v>46</v>
+      <c r="B21" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
@@ -2114,21 +2137,23 @@
       <c r="F21" s="14"/>
       <c r="G21" s="12"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="30"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" ht="24" spans="1:16">
       <c r="A22" s="13"/>
       <c r="B22" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
@@ -2136,21 +2161,23 @@
       <c r="F22" s="14"/>
       <c r="G22" s="12"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="L22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="30"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" ht="24" spans="1:16">
       <c r="A23" s="13"/>
       <c r="B23" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
@@ -2158,21 +2185,23 @@
       <c r="F23" s="14"/>
       <c r="G23" s="12"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="L23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" ht="24" spans="1:16">
       <c r="A24" s="13"/>
-      <c r="B24" s="18" t="s">
-        <v>49</v>
+      <c r="B24" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
@@ -2180,109 +2209,115 @@
       <c r="F24" s="14"/>
       <c r="G24" s="12"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="30"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" ht="24" spans="1:16">
       <c r="A25" s="13"/>
-      <c r="B25" s="18" t="s">
-        <v>50</v>
+      <c r="B25" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="12"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="30"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" ht="24" spans="1:16">
       <c r="A26" s="13"/>
-      <c r="B26" s="18" t="s">
-        <v>51</v>
+      <c r="B26" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="12"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="30"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" ht="24" spans="1:16">
       <c r="A27" s="13"/>
-      <c r="B27" s="18" t="s">
-        <v>52</v>
+      <c r="B27" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="12"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="30"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" ht="24" spans="1:16">
       <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
-        <v>53</v>
+      <c r="B28" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="11"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="30"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" ht="24" spans="1:16">
       <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>54</v>
+      <c r="B29" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
@@ -2290,21 +2325,23 @@
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="L29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" ht="24" spans="1:16">
       <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>55</v>
+      <c r="B30" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
@@ -2312,21 +2349,21 @@
       <c r="F30" s="14"/>
       <c r="G30" s="12"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="30"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" ht="24" spans="1:16">
       <c r="A31" s="13"/>
-      <c r="B31" s="10" t="s">
-        <v>56</v>
+      <c r="B31" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
@@ -2334,21 +2371,21 @@
       <c r="F31" s="14"/>
       <c r="G31" s="12"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" ht="24" spans="1:16">
       <c r="A32" s="13"/>
-      <c r="B32" s="10" t="s">
-        <v>57</v>
+      <c r="B32" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
@@ -2356,21 +2393,21 @@
       <c r="F32" s="14"/>
       <c r="G32" s="12"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="30"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" ht="24" spans="1:16">
       <c r="A33" s="13"/>
-      <c r="B33" s="10" t="s">
-        <v>58</v>
+      <c r="B33" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
@@ -2378,18 +2415,16 @@
       <c r="F33" s="14"/>
       <c r="G33" s="12"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28" t="s">
-        <v>59</v>
-      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="30"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" ht="24" spans="1:16">
       <c r="A34" s="13"/>
@@ -2402,18 +2437,16 @@
       <c r="F34" s="14"/>
       <c r="G34" s="12"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28" t="s">
-        <v>59</v>
-      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="30"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" ht="24" spans="1:16">
       <c r="A35" s="13"/>
@@ -2426,20 +2459,20 @@
       <c r="F35" s="14"/>
       <c r="G35" s="12"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="15"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="30"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" ht="24" spans="1:16">
       <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="14"/>
@@ -2448,23 +2481,23 @@
       <c r="F36" s="14"/>
       <c r="G36" s="12"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28" t="s">
-        <v>33</v>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="11"/>
+      <c r="M36" s="15"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="30"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" ht="24" spans="1:16">
       <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
-        <v>63</v>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="11"/>
@@ -2472,87 +2505,91 @@
       <c r="F37" s="14"/>
       <c r="G37" s="12"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="L37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="11"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="30"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" ht="24" spans="1:16">
       <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
-        <v>64</v>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="12"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
       <c r="L38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="11"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="30"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" ht="24" spans="1:16">
       <c r="A39" s="13"/>
       <c r="B39" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="12"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="L39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="15"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="30"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="40" ht="24" spans="1:16">
       <c r="A40" s="13"/>
       <c r="B40" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="12"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
       <c r="L40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="15"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="30"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="31"/>
     </row>
     <row r="41" ht="24" spans="1:16">
       <c r="A41" s="13"/>
       <c r="B41" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -2560,21 +2597,21 @@
       <c r="F41" s="14"/>
       <c r="G41" s="12"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="15"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="30"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="31"/>
     </row>
     <row r="42" ht="24" spans="1:16">
       <c r="A42" s="13"/>
       <c r="B42" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
@@ -2582,21 +2619,21 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
       <c r="L42" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="30"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="31"/>
     </row>
     <row r="43" ht="24" spans="1:16">
       <c r="A43" s="13"/>
       <c r="B43" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -2604,21 +2641,21 @@
       <c r="F43" s="14"/>
       <c r="G43" s="12"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
       <c r="L43" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="30"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="31"/>
     </row>
     <row r="44" ht="24" spans="1:16">
       <c r="A44" s="13"/>
       <c r="B44" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
@@ -2626,21 +2663,21 @@
       <c r="F44" s="14"/>
       <c r="G44" s="12"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
       <c r="L44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="30"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="31"/>
     </row>
     <row r="45" ht="24" spans="1:16">
       <c r="A45" s="13"/>
       <c r="B45" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
@@ -2648,21 +2685,21 @@
       <c r="F45" s="14"/>
       <c r="G45" s="12"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29"/>
       <c r="L45" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="30"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="31"/>
     </row>
     <row r="46" ht="24" spans="1:16">
       <c r="A46" s="13"/>
       <c r="B46" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -2670,21 +2707,21 @@
       <c r="F46" s="14"/>
       <c r="G46" s="12"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
       <c r="L46" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="31"/>
     </row>
     <row r="47" ht="24" spans="1:16">
       <c r="A47" s="13"/>
       <c r="B47" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
@@ -2692,21 +2729,21 @@
       <c r="F47" s="14"/>
       <c r="G47" s="12"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
       <c r="L47" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="30"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" ht="24" spans="1:16">
       <c r="A48" s="13"/>
       <c r="B48" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
@@ -2714,21 +2751,21 @@
       <c r="F48" s="14"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
       <c r="L48" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="30"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="31"/>
     </row>
     <row r="49" ht="24" spans="1:16">
       <c r="A49" s="13"/>
       <c r="B49" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
@@ -2736,21 +2773,21 @@
       <c r="F49" s="14"/>
       <c r="G49" s="12"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
       <c r="L49" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="30"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="33"/>
     </row>
     <row r="50" ht="24" spans="1:16">
       <c r="A50" s="13"/>
       <c r="B50" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
@@ -2758,21 +2795,21 @@
       <c r="F50" s="14"/>
       <c r="G50" s="12"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
       <c r="L50" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="30"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="31"/>
     </row>
     <row r="51" ht="24" spans="1:16">
       <c r="A51" s="13"/>
       <c r="B51" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
@@ -2780,21 +2817,21 @@
       <c r="F51" s="14"/>
       <c r="G51" s="12"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29"/>
       <c r="L51" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="30"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="O51" s="32"/>
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" ht="24" spans="1:16">
       <c r="A52" s="13"/>
-      <c r="B52" s="15" t="s">
-        <v>78</v>
+      <c r="B52" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
@@ -2802,21 +2839,21 @@
       <c r="F52" s="14"/>
       <c r="G52" s="12"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
       <c r="L52" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="30"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="31"/>
     </row>
     <row r="53" ht="24" spans="1:16">
       <c r="A53" s="13"/>
       <c r="B53" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
@@ -2824,106 +2861,118 @@
       <c r="F53" s="14"/>
       <c r="G53" s="12"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
       <c r="L53" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="30"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="O53" s="32"/>
+      <c r="P53" s="31"/>
+    </row>
+    <row r="54" ht="24" spans="1:16">
       <c r="A54" s="13"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="12"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="14"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="30"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="31"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="12"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="14"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="30"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="O55" s="32"/>
+      <c r="P55" s="31"/>
+    </row>
+    <row r="56" ht="24" spans="1:16">
       <c r="A56" s="13"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="12"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="14"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="30"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="31"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="13"/>
       <c r="B57" s="15"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="12"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="28"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="29"/>
       <c r="L57" s="14"/>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="30"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="31"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="13"/>
       <c r="B58" s="15"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="12"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="28"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="29"/>
       <c r="L58" s="14"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="30"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="31"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="13"/>
@@ -2934,86 +2983,86 @@
       <c r="F59" s="14"/>
       <c r="G59" s="12"/>
       <c r="H59" s="15"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="28"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="14"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="30"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="31"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="13"/>
       <c r="B60" s="15"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="14"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="14"/>
       <c r="G60" s="12"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="28"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="14"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="30"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="31"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="13"/>
       <c r="B61" s="15"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="14"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="14"/>
       <c r="G61" s="12"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="28"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="14"/>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="30"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="31"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="13"/>
       <c r="B62" s="15"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="12"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="28"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="14"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="30"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="31"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="13"/>
       <c r="B63" s="15"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="12"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="28"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="14"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="30"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="31"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="13"/>
@@ -3024,50 +3073,50 @@
       <c r="F64" s="14"/>
       <c r="G64" s="12"/>
       <c r="H64" s="15"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="11"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="30"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="31"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="13"/>
       <c r="B65" s="15"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="14"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="14"/>
       <c r="G65" s="12"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="11"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="30"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="31"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="13"/>
       <c r="B66" s="15"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="14"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="14"/>
       <c r="G66" s="12"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="11"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="30"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="31"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="13"/>
@@ -3078,16 +3127,16 @@
       <c r="F67" s="14"/>
       <c r="G67" s="12"/>
       <c r="H67" s="15"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="28"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="10"/>
       <c r="M67" s="11"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="30"/>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:16">
+      <c r="O67" s="32"/>
+      <c r="P67" s="31"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="13"/>
       <c r="B68" s="15"/>
       <c r="C68" s="14"/>
@@ -3096,16 +3145,16 @@
       <c r="F68" s="14"/>
       <c r="G68" s="12"/>
       <c r="H68" s="15"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="30"/>
-    </row>
-    <row r="69" ht="13" customHeight="1" spans="1:16">
+      <c r="O68" s="32"/>
+      <c r="P68" s="31"/>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="13"/>
       <c r="B69" s="15"/>
       <c r="C69" s="14"/>
@@ -3114,16 +3163,16 @@
       <c r="F69" s="14"/>
       <c r="G69" s="12"/>
       <c r="H69" s="15"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="15"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="30"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:16">
+      <c r="O69" s="32"/>
+      <c r="P69" s="31"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="13"/>
       <c r="B70" s="15"/>
       <c r="C70" s="14"/>
@@ -3132,16 +3181,16 @@
       <c r="F70" s="14"/>
       <c r="G70" s="12"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="15"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="30"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:16">
+      <c r="O70" s="32"/>
+      <c r="P70" s="31"/>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:16">
       <c r="A71" s="13"/>
       <c r="B71" s="15"/>
       <c r="C71" s="14"/>
@@ -3150,16 +3199,16 @@
       <c r="F71" s="14"/>
       <c r="G71" s="12"/>
       <c r="H71" s="15"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="28"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="29"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="30"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:16">
+      <c r="O71" s="32"/>
+      <c r="P71" s="31"/>
+    </row>
+    <row r="72" ht="13" customHeight="1" spans="1:16">
       <c r="A72" s="13"/>
       <c r="B72" s="15"/>
       <c r="C72" s="14"/>
@@ -3168,14 +3217,14 @@
       <c r="F72" s="14"/>
       <c r="G72" s="12"/>
       <c r="H72" s="15"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="28"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="29"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="30"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="31"/>
     </row>
     <row r="73" customHeight="1" spans="1:16">
       <c r="A73" s="13"/>
@@ -3186,14 +3235,14 @@
       <c r="F73" s="14"/>
       <c r="G73" s="12"/>
       <c r="H73" s="15"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="28"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="29"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="30"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="31"/>
     </row>
     <row r="74" customHeight="1" spans="1:16">
       <c r="A74" s="13"/>
@@ -3204,14 +3253,14 @@
       <c r="F74" s="14"/>
       <c r="G74" s="12"/>
       <c r="H74" s="15"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="28"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="29"/>
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="30"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="31"/>
     </row>
     <row r="75" customHeight="1" spans="1:16">
       <c r="A75" s="13"/>
@@ -3222,14 +3271,14 @@
       <c r="F75" s="14"/>
       <c r="G75" s="12"/>
       <c r="H75" s="15"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="28"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="29"/>
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="30"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="31"/>
     </row>
     <row r="76" customHeight="1" spans="1:16">
       <c r="A76" s="13"/>
@@ -3240,17 +3289,17 @@
       <c r="F76" s="14"/>
       <c r="G76" s="12"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="28"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="29"/>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="30"/>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="12"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="31"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:16">
+      <c r="A77" s="13"/>
       <c r="B77" s="15"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
@@ -3258,17 +3307,17 @@
       <c r="F77" s="14"/>
       <c r="G77" s="12"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="14"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="30"/>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="9"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="31"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:16">
+      <c r="A78" s="13"/>
       <c r="B78" s="15"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
@@ -3276,16 +3325,16 @@
       <c r="F78" s="14"/>
       <c r="G78" s="12"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="14"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="30"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="O78" s="32"/>
+      <c r="P78" s="31"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:16">
       <c r="A79" s="13"/>
       <c r="B79" s="15"/>
       <c r="C79" s="14"/>
@@ -3294,17 +3343,17 @@
       <c r="F79" s="14"/>
       <c r="G79" s="12"/>
       <c r="H79" s="15"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="14"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="31"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="15"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
@@ -3312,17 +3361,17 @@
       <c r="F80" s="14"/>
       <c r="G80" s="12"/>
       <c r="H80" s="15"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="36"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="29"/>
       <c r="L80" s="14"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="31"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="13"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="15"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
@@ -3330,14 +3379,14 @@
       <c r="F81" s="14"/>
       <c r="G81" s="12"/>
       <c r="H81" s="15"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="36"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
       <c r="L81" s="14"/>
       <c r="M81" s="15"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="31"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="13"/>
@@ -3348,14 +3397,14 @@
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="15"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="36"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="38"/>
       <c r="L82" s="14"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="13"/>
@@ -3366,14 +3415,14 @@
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
       <c r="H83" s="15"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="36"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="38"/>
       <c r="L83" s="14"/>
       <c r="M83" s="15"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="13"/>
@@ -3384,14 +3433,14 @@
       <c r="F84" s="14"/>
       <c r="G84" s="12"/>
       <c r="H84" s="15"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="36"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="38"/>
       <c r="L84" s="14"/>
       <c r="M84" s="15"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="13"/>
@@ -3402,14 +3451,14 @@
       <c r="F85" s="14"/>
       <c r="G85" s="12"/>
       <c r="H85" s="15"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="36"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="38"/>
       <c r="L85" s="14"/>
       <c r="M85" s="15"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="13"/>
@@ -3418,16 +3467,16 @@
       <c r="D86" s="15"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="34"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="36"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="38"/>
       <c r="L86" s="14"/>
       <c r="M86" s="15"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="13"/>
@@ -3436,16 +3485,16 @@
       <c r="D87" s="15"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
-      <c r="G87" s="34"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="15"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="36"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="38"/>
       <c r="L87" s="14"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="13"/>
@@ -3454,16 +3503,16 @@
       <c r="D88" s="15"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="34"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="15"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="36"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="38"/>
       <c r="L88" s="14"/>
       <c r="M88" s="15"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="13"/>
@@ -3472,16 +3521,16 @@
       <c r="D89" s="15"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
-      <c r="G89" s="34"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="15"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="36"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="38"/>
       <c r="L89" s="14"/>
       <c r="M89" s="15"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="13"/>
@@ -3490,16 +3539,16 @@
       <c r="D90" s="15"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
-      <c r="G90" s="34"/>
+      <c r="G90" s="36"/>
       <c r="H90" s="15"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="36"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="38"/>
       <c r="L90" s="14"/>
       <c r="M90" s="15"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="13"/>
@@ -3508,16 +3557,16 @@
       <c r="D91" s="15"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
-      <c r="G91" s="34"/>
+      <c r="G91" s="36"/>
       <c r="H91" s="15"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="36"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="38"/>
       <c r="L91" s="14"/>
       <c r="M91" s="15"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="13"/>
@@ -3526,16 +3575,16 @@
       <c r="D92" s="15"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
-      <c r="G92" s="34"/>
+      <c r="G92" s="36"/>
       <c r="H92" s="15"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="36"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="38"/>
       <c r="L92" s="14"/>
       <c r="M92" s="15"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="13"/>
@@ -3544,16 +3593,16 @@
       <c r="D93" s="15"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
-      <c r="G93" s="34"/>
+      <c r="G93" s="36"/>
       <c r="H93" s="15"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="36"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="38"/>
       <c r="L93" s="14"/>
       <c r="M93" s="15"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="13"/>
@@ -3562,16 +3611,16 @@
       <c r="D94" s="15"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
-      <c r="G94" s="34"/>
+      <c r="G94" s="36"/>
       <c r="H94" s="15"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="36"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="38"/>
       <c r="L94" s="14"/>
       <c r="M94" s="15"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="13"/>
@@ -3580,16 +3629,16 @@
       <c r="D95" s="15"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
-      <c r="G95" s="34"/>
+      <c r="G95" s="36"/>
       <c r="H95" s="15"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="36"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="38"/>
       <c r="L95" s="14"/>
       <c r="M95" s="15"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="13"/>
@@ -3598,16 +3647,16 @@
       <c r="D96" s="15"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
-      <c r="G96" s="34"/>
+      <c r="G96" s="36"/>
       <c r="H96" s="15"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="36"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="38"/>
       <c r="L96" s="14"/>
       <c r="M96" s="15"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="13"/>
@@ -3616,16 +3665,16 @@
       <c r="D97" s="15"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
-      <c r="G97" s="34"/>
+      <c r="G97" s="36"/>
       <c r="H97" s="15"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="36"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="38"/>
       <c r="L97" s="14"/>
       <c r="M97" s="15"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="13"/>
@@ -3634,809 +3683,868 @@
       <c r="D98" s="15"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
-      <c r="G98" s="34"/>
+      <c r="G98" s="36"/>
       <c r="H98" s="15"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="36"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="38"/>
       <c r="L98" s="14"/>
       <c r="M98" s="15"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="13"/>
       <c r="B99" s="15"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="35"/>
+      <c r="D99" s="15"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
-      <c r="G99" s="34"/>
+      <c r="G99" s="36"/>
       <c r="H99" s="15"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="38"/>
       <c r="L99" s="14"/>
       <c r="M99" s="15"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="13"/>
       <c r="B100" s="15"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="35"/>
+      <c r="D100" s="15"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="34"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="36"/>
       <c r="H100" s="15"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="38"/>
       <c r="L100" s="14"/>
       <c r="M100" s="15"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="15"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="35"/>
+      <c r="D101" s="15"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="34"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="36"/>
       <c r="H101" s="15"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="38"/>
       <c r="L101" s="14"/>
       <c r="M101" s="15"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-    </row>
-    <row r="102" spans="5:16">
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="13"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
       <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
       <c r="N102" s="38"/>
       <c r="O102" s="38"/>
       <c r="P102" s="38"/>
     </row>
-    <row r="103" spans="5:16">
-      <c r="E103" s="37"/>
+    <row r="103" spans="1:16">
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="14"/>
       <c r="F103" s="38"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="38"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="38"/>
       <c r="J103" s="38"/>
       <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
       <c r="N103" s="38"/>
       <c r="O103" s="38"/>
       <c r="P103" s="38"/>
     </row>
-    <row r="104" spans="5:16">
-      <c r="E104" s="37"/>
+    <row r="104" spans="1:16">
+      <c r="A104" s="12"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="14"/>
       <c r="F104" s="38"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="38"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="38"/>
       <c r="J104" s="38"/>
       <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
       <c r="N104" s="38"/>
       <c r="O104" s="38"/>
       <c r="P104" s="38"/>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="37"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="37"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="37"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
     </row>
     <row r="108" spans="5:16">
-      <c r="E108" s="37"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
     </row>
     <row r="109" spans="5:16">
-      <c r="E109" s="37"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
     </row>
     <row r="110" spans="5:16">
-      <c r="E110" s="37"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
     </row>
     <row r="111" spans="5:16">
-      <c r="E111" s="37"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
-      <c r="O111" s="38"/>
-      <c r="P111" s="38"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
     </row>
     <row r="112" spans="5:16">
-      <c r="E112" s="37"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="38"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="40"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
     </row>
     <row r="113" spans="5:16">
-      <c r="E113" s="37"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="40"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="40"/>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
     </row>
     <row r="114" spans="5:16">
-      <c r="E114" s="37"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="38"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
     </row>
     <row r="115" spans="5:16">
-      <c r="E115" s="37"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
     </row>
     <row r="116" spans="5:16">
-      <c r="E116" s="37"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
     </row>
     <row r="117" spans="5:16">
-      <c r="E117" s="37"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="40"/>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
     </row>
     <row r="118" spans="5:16">
-      <c r="E118" s="37"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
     </row>
     <row r="119" spans="5:16">
-      <c r="E119" s="37"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-      <c r="O119" s="38"/>
-      <c r="P119" s="38"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="40"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="40"/>
+      <c r="P119" s="40"/>
     </row>
     <row r="120" spans="5:16">
-      <c r="E120" s="37"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
-      <c r="N120" s="38"/>
-      <c r="O120" s="38"/>
-      <c r="P120" s="38"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="40"/>
     </row>
     <row r="121" spans="5:16">
-      <c r="E121" s="37"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="40"/>
     </row>
     <row r="122" spans="5:16">
-      <c r="E122" s="37"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
-      <c r="L122" s="38"/>
-      <c r="M122" s="38"/>
-      <c r="N122" s="38"/>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
     </row>
     <row r="123" spans="5:16">
-      <c r="E123" s="37"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
-      <c r="L123" s="38"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
-      <c r="O123" s="38"/>
-      <c r="P123" s="38"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
     </row>
     <row r="124" spans="5:16">
-      <c r="E124" s="37"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38"/>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="40"/>
     </row>
     <row r="125" spans="5:16">
-      <c r="E125" s="37"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
-      <c r="N125" s="38"/>
-      <c r="O125" s="38"/>
-      <c r="P125" s="38"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
+      <c r="P125" s="40"/>
     </row>
     <row r="126" spans="5:16">
-      <c r="E126" s="37"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
-      <c r="L126" s="38"/>
-      <c r="M126" s="38"/>
-      <c r="N126" s="38"/>
-      <c r="O126" s="38"/>
-      <c r="P126" s="38"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="40"/>
     </row>
     <row r="127" spans="5:16">
-      <c r="E127" s="37"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="38"/>
-      <c r="M127" s="38"/>
-      <c r="N127" s="38"/>
-      <c r="O127" s="38"/>
-      <c r="P127" s="38"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="40"/>
+      <c r="P127" s="40"/>
     </row>
     <row r="128" spans="5:16">
-      <c r="E128" s="37"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
-      <c r="L128" s="38"/>
-      <c r="M128" s="38"/>
-      <c r="N128" s="38"/>
-      <c r="O128" s="38"/>
-      <c r="P128" s="38"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="40"/>
+      <c r="P128" s="40"/>
     </row>
     <row r="129" spans="5:16">
-      <c r="E129" s="37"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
-      <c r="L129" s="38"/>
-      <c r="M129" s="38"/>
-      <c r="N129" s="38"/>
-      <c r="O129" s="38"/>
-      <c r="P129" s="38"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40"/>
+      <c r="P129" s="40"/>
     </row>
     <row r="130" spans="5:16">
-      <c r="E130" s="37"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="38"/>
-      <c r="L130" s="38"/>
-      <c r="M130" s="38"/>
-      <c r="N130" s="38"/>
-      <c r="O130" s="38"/>
-      <c r="P130" s="38"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
     </row>
     <row r="131" spans="5:16">
-      <c r="E131" s="37"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38"/>
-      <c r="M131" s="38"/>
-      <c r="N131" s="38"/>
-      <c r="O131" s="38"/>
-      <c r="P131" s="38"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
     </row>
     <row r="132" spans="5:16">
-      <c r="E132" s="37"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
     </row>
     <row r="133" spans="5:16">
-      <c r="E133" s="37"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="40"/>
+      <c r="O133" s="40"/>
+      <c r="P133" s="40"/>
     </row>
     <row r="134" spans="5:16">
-      <c r="E134" s="37"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-      <c r="P134" s="38"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="40"/>
+      <c r="O134" s="40"/>
+      <c r="P134" s="40"/>
     </row>
     <row r="135" spans="5:16">
-      <c r="E135" s="37"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
-      <c r="O135" s="38"/>
-      <c r="P135" s="38"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="40"/>
     </row>
     <row r="136" spans="5:16">
-      <c r="E136" s="37"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="38"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="38"/>
-      <c r="P136" s="38"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="40"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="40"/>
+      <c r="O136" s="40"/>
+      <c r="P136" s="40"/>
     </row>
     <row r="137" spans="5:16">
-      <c r="E137" s="37"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-      <c r="P137" s="38"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="40"/>
+      <c r="O137" s="40"/>
+      <c r="P137" s="40"/>
     </row>
     <row r="138" spans="5:16">
-      <c r="E138" s="37"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="38"/>
-      <c r="N138" s="38"/>
-      <c r="O138" s="38"/>
-      <c r="P138" s="38"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="40"/>
+      <c r="P138" s="40"/>
     </row>
     <row r="139" spans="5:16">
-      <c r="E139" s="37"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="38"/>
-      <c r="P139" s="38"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="40"/>
+      <c r="O139" s="40"/>
+      <c r="P139" s="40"/>
     </row>
     <row r="140" spans="5:16">
-      <c r="E140" s="37"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
-      <c r="M140" s="38"/>
-      <c r="N140" s="38"/>
-      <c r="O140" s="38"/>
-      <c r="P140" s="38"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
+      <c r="N140" s="40"/>
+      <c r="O140" s="40"/>
+      <c r="P140" s="40"/>
     </row>
     <row r="141" spans="5:16">
-      <c r="E141" s="37"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="38"/>
-      <c r="N141" s="38"/>
-      <c r="O141" s="38"/>
-      <c r="P141" s="38"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="40"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="40"/>
+      <c r="L141" s="40"/>
+      <c r="M141" s="40"/>
+      <c r="N141" s="40"/>
+      <c r="O141" s="40"/>
+      <c r="P141" s="40"/>
     </row>
     <row r="142" spans="5:16">
-      <c r="E142" s="37"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
-      <c r="L142" s="38"/>
-      <c r="M142" s="38"/>
-      <c r="N142" s="38"/>
-      <c r="O142" s="38"/>
-      <c r="P142" s="38"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="40"/>
+      <c r="L142" s="40"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="40"/>
+      <c r="O142" s="40"/>
+      <c r="P142" s="40"/>
     </row>
     <row r="143" spans="5:16">
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
-      <c r="M143" s="38"/>
-      <c r="N143" s="38"/>
-      <c r="O143" s="38"/>
-      <c r="P143" s="38"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="40"/>
+      <c r="O143" s="40"/>
+      <c r="P143" s="40"/>
     </row>
     <row r="144" spans="5:16">
-      <c r="E144" s="37"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
-      <c r="M144" s="38"/>
-      <c r="N144" s="38"/>
-      <c r="O144" s="38"/>
-      <c r="P144" s="38"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="40"/>
     </row>
     <row r="145" spans="5:16">
-      <c r="E145" s="37"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
-      <c r="M145" s="38"/>
-      <c r="N145" s="38"/>
-      <c r="O145" s="38"/>
-      <c r="P145" s="38"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="40"/>
+      <c r="L145" s="40"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="40"/>
+      <c r="O145" s="40"/>
+      <c r="P145" s="40"/>
     </row>
     <row r="146" spans="5:16">
-      <c r="E146" s="37"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
-      <c r="M146" s="38"/>
-      <c r="N146" s="38"/>
-      <c r="O146" s="38"/>
-      <c r="P146" s="38"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="40"/>
+      <c r="L146" s="40"/>
+      <c r="M146" s="40"/>
+      <c r="N146" s="40"/>
+      <c r="O146" s="40"/>
+      <c r="P146" s="40"/>
     </row>
     <row r="147" spans="5:16">
-      <c r="E147" s="37"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
-      <c r="L147" s="38"/>
-      <c r="M147" s="38"/>
-      <c r="N147" s="38"/>
-      <c r="O147" s="38"/>
-      <c r="P147" s="38"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="40"/>
+      <c r="L147" s="40"/>
+      <c r="M147" s="40"/>
+      <c r="N147" s="40"/>
+      <c r="O147" s="40"/>
+      <c r="P147" s="40"/>
     </row>
     <row r="148" spans="5:16">
-      <c r="E148" s="37"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="38"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="38"/>
-      <c r="L148" s="38"/>
-      <c r="M148" s="38"/>
-      <c r="N148" s="38"/>
-      <c r="O148" s="38"/>
-      <c r="P148" s="38"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="40"/>
+      <c r="L148" s="40"/>
+      <c r="M148" s="40"/>
+      <c r="N148" s="40"/>
+      <c r="O148" s="40"/>
+      <c r="P148" s="40"/>
     </row>
     <row r="149" spans="5:16">
-      <c r="E149" s="37"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="38"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="38"/>
-      <c r="L149" s="38"/>
-      <c r="M149" s="38"/>
-      <c r="N149" s="38"/>
-      <c r="O149" s="38"/>
-      <c r="P149" s="38"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="40"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="40"/>
+      <c r="L149" s="40"/>
+      <c r="M149" s="40"/>
+      <c r="N149" s="40"/>
+      <c r="O149" s="40"/>
+      <c r="P149" s="40"/>
     </row>
     <row r="150" spans="5:16">
-      <c r="E150" s="37"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="38"/>
-      <c r="J150" s="38"/>
-      <c r="K150" s="38"/>
-      <c r="L150" s="38"/>
-      <c r="M150" s="38"/>
-      <c r="N150" s="38"/>
-      <c r="O150" s="38"/>
-      <c r="P150" s="38"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="40"/>
+      <c r="L150" s="40"/>
+      <c r="M150" s="40"/>
+      <c r="N150" s="40"/>
+      <c r="O150" s="40"/>
+      <c r="P150" s="40"/>
     </row>
     <row r="151" spans="5:16">
-      <c r="E151" s="37"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="38"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="38"/>
-      <c r="L151" s="38"/>
-      <c r="M151" s="38"/>
-      <c r="N151" s="38"/>
-      <c r="O151" s="38"/>
-      <c r="P151" s="38"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40"/>
+      <c r="L151" s="40"/>
+      <c r="M151" s="40"/>
+      <c r="N151" s="40"/>
+      <c r="O151" s="40"/>
+      <c r="P151" s="40"/>
+    </row>
+    <row r="152" spans="5:16">
+      <c r="E152" s="39"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="40"/>
+      <c r="L152" s="40"/>
+      <c r="M152" s="40"/>
+      <c r="N152" s="40"/>
+      <c r="O152" s="40"/>
+      <c r="P152" s="40"/>
+    </row>
+    <row r="153" spans="5:16">
+      <c r="E153" s="39"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+    </row>
+    <row r="154" spans="5:16">
+      <c r="E154" s="39"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P101">
+  <autoFilter ref="A2:P104">
     <extLst/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A77"/>
-    <mergeCell ref="A78:A101"/>
-    <mergeCell ref="I6:I53"/>
-    <mergeCell ref="J6:J53"/>
+    <mergeCell ref="A6:A80"/>
+    <mergeCell ref="A81:A104"/>
+    <mergeCell ref="I6:I56"/>
+    <mergeCell ref="J6:J56"/>
   </mergeCells>
-  <conditionalFormatting sqref="C64:E64">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O64=1</formula>
+  <conditionalFormatting sqref="C67:E67">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$O67=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A1048576">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A105:A1048576">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$O$3="100%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B35">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="B34:B38">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:P3 B4:K6 L4:P53 B7:H30 K7:K53 C31:H35 B36:H53 B54:P61 B65:P1048576 B62:D63 B64 F62:P64">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="B1:P3 B4:K6 L4:P16 B7:H28 B30:H33 K7:K16 K17:P28 K30:P56 C34:H38 B39:H56 B57:P64 B68:P1048576 B65:D66 B67 F65:P67">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$O1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:P29 B29:H29 K29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$O29=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G11 G12 G13 G14 G15 G20 G24 G27 G32 G33 G34 G8:G10 G16:G19 G21:G23 G25:G26 G28:G31 G35:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G11 G12 G13 G14 G15 G16 G17 G18 G22 G26 G27 G28 G29 G30 G35 G36 G37 G8:G10 G19:G21 G23:G25 G31:G34 G38:G104">
       <formula1>"高,中,底"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6 F7 F11 F12 F13 F14 F15 F20 F24 F27 F32 F33 F34 F2:F3 F8:F10 F16:F19 F21:F23 F25:F26 F28:F31 F35:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6 F7 F11 F12 F13 F14 F15 F16 F17 F18 F22 F26 F27 F28 F29 F30 F35 F36 F37 F2:F3 F8:F10 F19:F21 F23:F25 F31:F34 F38:F1048576">
       <formula1>"未开始,方案定义中,方案已确定,开发中,初步测试完成,集成测试完成,用户已确认"</formula1>
     </dataValidation>
   </dataValidations>
